--- a/biology/Zoologie/Eriophyes_aceriscampestris/Eriophyes_aceriscampestris.xlsx
+++ b/biology/Zoologie/Eriophyes_aceriscampestris/Eriophyes_aceriscampestris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aceria myriadeum est une espèce d'acariens de la famille des Eriophyidae et du genre Aceria. Elle est responsable de la formation de galles sur les feuilles d'Érable champêtre (Acer campestre)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aceria myriadeum est une espèce d'acariens de la famille des Eriophyidae et du genre Aceria. Elle est responsable de la formation de galles sur les feuilles d'Érable champêtre (Acer campestre).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est endémique d'Europe[2], présente en Bosnie-Herzégovine, en Grande-Bretagne, en Croatie, en Allemagne, en Hongrie, en Italie, au Luxembourg, en Macédoine du Nord, en Slovénie et en ex-Yougoslavie[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique d'Europe, présente en Bosnie-Herzégovine, en Grande-Bretagne, en Croatie, en Allemagne, en Hongrie, en Italie, au Luxembourg, en Macédoine du Nord, en Slovénie et en ex-Yougoslavie.
 </t>
         </is>
       </c>
@@ -542,22 +556,24 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Aceria myriadeum (A.Murray, 1877)[2].
-L'espèce a été initialement classée dans le genre Phytoptus sous le protonyme Phytoptus myriadeum A.Murray, 1877[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Aceria myriadeum (A.Murray, 1877).
+L'espèce a été initialement classée dans le genre Phytoptus sous le protonyme Phytoptus myriadeum A.Murray, 1877.
 Aceria myriadeum a pour synonymes :
-Aceria aceriscampestris (Nalepa, 1922)[2],[3]
-Artacris aceriscampestris[3]
-Artacris myriadeum[3]
-Cisaberoptus aceriscampestris[3]
-Cisaberoptus myriadeum[3]
-Eriophyes aceriscampestris Nalepa, 1922[2],[3]
-Eriophyes macrochelus var. aceriscampestris Nalepa, 1922[2]
-Eriophyes macrorhynchus aceriscampestris[2]
-Phytoptus myriadeum A.Murray, 1877[2],[3]
-Trichostigma aceriscampestris[3]
-Trichostigma myriadeum[3]
+Aceria aceriscampestris (Nalepa, 1922),
+Artacris aceriscampestris
+Artacris myriadeum
+Cisaberoptus aceriscampestris
+Cisaberoptus myriadeum
+Eriophyes aceriscampestris Nalepa, 1922,
+Eriophyes macrochelus var. aceriscampestris Nalepa, 1922
+Eriophyes macrorhynchus aceriscampestris
+Phytoptus myriadeum A.Murray, 1877,
+Trichostigma aceriscampestris
+Trichostigma myriadeum
 </t>
         </is>
       </c>
